--- a/1 - Planeacion/2 - Estrategia/Plan de riesgos.xlsx
+++ b/1 - Planeacion/2 - Estrategia/Plan de riesgos.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
   <si>
     <t>La ausencia de uno de los integrantes por fuerza mayor.</t>
   </si>
@@ -115,13 +115,22 @@
   </si>
   <si>
     <t>Retroalimentacion y apoyo mutuo de integrantes con desarrollos que afecten en su caso de uso.</t>
+  </si>
+  <si>
+    <t>La no aseptacion de la propuesta de aceptacion de elaboracion del producto por parte  de cliente.</t>
+  </si>
+  <si>
+    <t>Replanteamiento de la propuesta según criticas del usuario.</t>
+  </si>
+  <si>
+    <t>Observacion de cada uno de los puntos dados por el usuario y generalizacion entre el equipo de los requerimientos del cliente.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,6 +144,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -144,7 +161,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -152,33 +169,271 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="10">
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -189,7 +444,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:E11" totalsRowShown="0" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:E11" totalsRowShown="0" headerRowDxfId="0" dataDxfId="9" headerRowBorderDxfId="7" tableBorderDxfId="8" totalsRowBorderDxfId="6">
   <autoFilter ref="A1:E11"/>
   <tableColumns count="5">
     <tableColumn id="1" name="DESCRIPCION" dataDxfId="5"/>
@@ -490,170 +745,180 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="A2:E11"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="64.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="78.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="183.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.7109375" customWidth="1"/>
+    <col min="2" max="2" width="47.85546875" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" customWidth="1"/>
+    <col min="4" max="4" width="58.85546875" customWidth="1"/>
     <col min="5" max="5" width="87.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="32.25" customHeight="1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="24" customHeight="1">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="A9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="25.5" customHeight="1">
+      <c r="A10" s="11"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" ht="23.25" customHeight="1">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1 - Planeacion/2 - Estrategia/Plan de riesgos.xlsx
+++ b/1 - Planeacion/2 - Estrategia/Plan de riesgos.xlsx
@@ -36,9 +36,6 @@
     <t>PLAN CONTINGENCIA</t>
   </si>
   <si>
-    <t>PROVABILIDAD</t>
-  </si>
-  <si>
     <t>Reduccion en los tiempos de todos lo integrantes por capacitacion ne las herramientas</t>
   </si>
   <si>
@@ -124,6 +121,9 @@
   </si>
   <si>
     <t>Observacion de cada uno de los puntos dados por el usuario y generalizacion entre el equipo de los requerimientos del cliente.</t>
+  </si>
+  <si>
+    <t>PROBABILIDAD</t>
   </si>
 </sst>
 </file>
@@ -303,24 +303,6 @@
   </cellStyles>
   <dxfs count="10">
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -411,6 +393,25 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
       <border>
         <bottom style="thin">
           <color indexed="64"/>
@@ -427,16 +428,15 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -444,14 +444,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:E11" totalsRowShown="0" headerRowDxfId="0" dataDxfId="9" headerRowBorderDxfId="7" tableBorderDxfId="8" totalsRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:E11" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
   <autoFilter ref="A1:E11"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="DESCRIPCION" dataDxfId="5"/>
-    <tableColumn id="2" name="IMPACTO" dataDxfId="4"/>
-    <tableColumn id="3" name="PROVABILIDAD" dataDxfId="3"/>
-    <tableColumn id="4" name="PLAN MITIGACION" dataDxfId="2"/>
-    <tableColumn id="5" name="PLAN CONTINGENCIA" dataDxfId="1"/>
+    <tableColumn id="1" name="DESCRIPCION" dataDxfId="4"/>
+    <tableColumn id="2" name="IMPACTO" dataDxfId="3"/>
+    <tableColumn id="3" name="PROBABILIDAD" dataDxfId="2"/>
+    <tableColumn id="4" name="PLAN MITIGACION" dataDxfId="1"/>
+    <tableColumn id="5" name="PLAN CONTINGENCIA" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -745,14 +745,14 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="51.7109375" customWidth="1"/>
     <col min="2" max="2" width="47.85546875" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" customWidth="1"/>
     <col min="4" max="4" width="58.85546875" customWidth="1"/>
     <col min="5" max="5" width="87.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -765,7 +765,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>4</v>
@@ -779,16 +779,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>8</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="22.5" customHeight="1">
@@ -797,113 +797,113 @@
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="23.25" customHeight="1">
       <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>12</v>
-      </c>
       <c r="C4" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="23.25" customHeight="1">
       <c r="A5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="24.75" customHeight="1">
       <c r="A6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="22.5" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="24" customHeight="1">
       <c r="A8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="21.75" customHeight="1">
       <c r="A9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="C9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>35</v>
-      </c>
       <c r="E9" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="25.5" customHeight="1">

--- a/1 - Planeacion/2 - Estrategia/Plan de riesgos.xlsx
+++ b/1 - Planeacion/2 - Estrategia/Plan de riesgos.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="90" windowWidth="10515" windowHeight="4680"/>
@@ -129,8 +129,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,19 +284,44 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -304,7 +329,25 @@
   <dxfs count="10">
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -319,7 +362,8 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -336,7 +380,8 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -353,7 +398,8 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -370,7 +416,8 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
           <color indexed="64"/>
@@ -409,9 +456,6 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
       <border>
         <bottom style="thin">
           <color indexed="64"/>
@@ -420,38 +464,25 @@
         <horizontal/>
       </border>
     </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:E11" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:E11" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
   <autoFilter ref="A1:E11"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="DESCRIPCION" dataDxfId="4"/>
-    <tableColumn id="2" name="IMPACTO" dataDxfId="3"/>
-    <tableColumn id="3" name="PROBABILIDAD" dataDxfId="2"/>
-    <tableColumn id="4" name="PLAN MITIGACION" dataDxfId="1"/>
-    <tableColumn id="5" name="PLAN CONTINGENCIA" dataDxfId="0"/>
+    <tableColumn id="1" name="DESCRIPCION" dataDxfId="6"/>
+    <tableColumn id="2" name="IMPACTO" dataDxfId="5"/>
+    <tableColumn id="3" name="PROBABILIDAD" dataDxfId="4"/>
+    <tableColumn id="4" name="PLAN MITIGACION" dataDxfId="3"/>
+    <tableColumn id="5" name="PLAN CONTINGENCIA" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -532,6 +563,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -566,6 +598,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -741,23 +774,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.7109375" customWidth="1"/>
-    <col min="2" max="2" width="47.85546875" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" customWidth="1"/>
-    <col min="4" max="4" width="58.85546875" customWidth="1"/>
-    <col min="5" max="5" width="87.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.85546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="58.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="38.5703125" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" customHeight="1">
+    <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -774,151 +808,151 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:5" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5" t="s">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="24" customHeight="1">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:5" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="25.5" customHeight="1">
-      <c r="A10" s="11"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
+    <row r="10" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -930,24 +964,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
